--- a/我的图书馆lists.xlsx
+++ b/我的图书馆lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="B文史哲" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="A科研工作" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="201">
   <si>
     <t>大类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +814,10 @@
   </si>
   <si>
     <t>经济学发展史（亚当-曼昆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国政治史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +965,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1241,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1513,24 +1516,24 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="36" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1546,21 +1549,21 @@
     </row>
     <row r="37" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1568,7 +1571,7 @@
     </row>
     <row r="40" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="41" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1584,7 +1587,7 @@
     </row>
     <row r="42" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="43" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1600,92 +1603,92 @@
     </row>
     <row r="44" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="F46">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="F47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>140</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>80</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>131</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>136</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>137</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1693,272 +1696,267 @@
     </row>
     <row r="57" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="65" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="67" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="68" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
+    <row r="69" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="71" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="72" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="74" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="76" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="78" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="79" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="80" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>11</v>
+        <v>169</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -1966,94 +1964,110 @@
     </row>
     <row r="106" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="108" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>156</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>155</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>14</v>
+        <v>155</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>162</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>184</v>
       </c>
-      <c r="F120">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="F122">
         <v>1</v>
       </c>
     </row>
@@ -2066,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2204,37 +2218,45 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2249,7 +2271,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/我的图书馆lists.xlsx
+++ b/我的图书馆lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B文史哲" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="202">
   <si>
     <t>大类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,703 +121,706 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>纪录片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希利尔讲艺术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启功给你讲书法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵孟頫小楷道德经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲：日本（世界我知道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游遍中国第一卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行的艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无印良品的整理收纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸟摄影学院（人像）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国建筑史导读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫崎峻：十载同行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱上铸铁锅美食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你今天真好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相扑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿出彩虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天演好一个情绪稳定的成年人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计学关我什么事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌合之众：大众心理研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑菲定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学问：解决你的7种人生焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的告别:关于衰老和死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考，快与慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病者生存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国国家地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用地图看懂世界格局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数基金投资指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画经济学1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪炮、病菌与钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类史学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解读基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫穷的本质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公正该如何做好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治秩序的起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君主论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学通识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国经济2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛津通识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗翔老师讲刑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新体诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白诗歌赏析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东品国学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾文正公嘉言钞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木心诗选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B文史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.1历史传记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓小平时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝多芬传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷三千年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑桥中国史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简读中国史：世界史坐标下的中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸之路：一部全新的世界史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏尔泰传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米开朗其罗传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尔斯传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏洛外传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一定爱看的极简欧洲史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球通史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天一堂北大历史课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBC世界史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国通史（简明插图版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的应许之地：以色列的荣耀与悲情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全译罗马帝国衰亡史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大明王朝1566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话时代：诸神的诞生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画中国史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万历十五年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画世界史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明朝那些事儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.2国学诗歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗经：越古老越美好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家小书：好诗不厌百回读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你应该熟读的中国古文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古文观止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国古典文学读本丛书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁启超家书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来人间一趟，你要看看太阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成事：冯唐品读曾国藩嘉言钞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三言两拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画宋词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白居易诗歌赏析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王维诗歌赏析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画唐诗1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.3哲学人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国哲学简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏格拉底之死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉思录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学家们都干了些什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅雷家书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走在人生边上：自问自答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独是一个人的清欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生哲思录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡是最浓的人生滋味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.4小说文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学回忆录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个世界会好么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老人与海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱与牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰.克利斯朵夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一生的远行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年维特之烦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱你就像爱生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间的礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空的另一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季羡林谈东西方文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍乱时期的爱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化苦旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们仨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安娜卡列宁娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我与地坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛上书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广岛之恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挪威的森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮与六便士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年孤独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无所谓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世纪三部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督山伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝花夕拾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔登湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪与罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万古江河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁是怎样炼成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了不起的盖茨比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国当代文学作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国现代文学三十年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局外人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪炮病菌与钢铁：人类社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治秩序的起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用地图看懂世界格局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭、私有制和国家的起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以历史角度来读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我脑袋里的怪东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D成长生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给青年的十二封信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何看懂一幅画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方绘画大师经典系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间管理：充分利用24小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学发展史（亚当-曼昆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国政治史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>故事会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪录片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希利尔讲艺术史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启功给你讲书法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵孟頫小楷道德经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚洲：日本（世界我知道）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游遍中国第一卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行的艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无印良品的整理收纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸟摄影学院（人像）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外国建筑史导读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫崎峻：十载同行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱上铸铁锅美食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你今天真好看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相扑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富士山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿出彩虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天演好一个情绪稳定的成年人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计学关我什么事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌合之众：大众心理研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑菲定律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学问：解决你的7种人生焦虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好的告别:关于衰老和死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型思维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考，快与慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病者生存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金字塔原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为心理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国国家地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用地图看懂世界格局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数基金投资指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时漫画经济学1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治哲学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪炮、病菌与钢铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类史学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解读基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贫穷的本质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公正该如何做好？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治秩序的起源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君主论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济学通识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国经济2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛津通识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗翔老师讲刑法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新体诗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白诗歌赏析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛泽东品国学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾文正公嘉言钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木心诗选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B文史哲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.1历史传记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛泽东传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓小平时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝多芬传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶路撒冷三千年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑桥中国史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简读中国史：世界史坐标下的中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝绸之路：一部全新的世界史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏尔泰传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米开朗其罗传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托尔斯传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏洛外传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你一定爱看的极简欧洲史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球通史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天一堂北大历史课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBC世界史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国通史（简明插图版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的应许之地：以色列的荣耀与悲情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全译罗马帝国衰亡史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大明王朝1566</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神话时代：诸神的诞生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时漫画中国史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万历十五年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时漫画世界史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明朝那些事儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.2国学诗歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗经：越古老越美好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大家小书：好诗不厌百回读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你应该熟读的中国古文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道德经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古文观止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国古典文学读本丛书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁启超家书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你来人间一趟，你要看看太阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成事：冯唐品读曾国藩嘉言钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三言两拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时漫画宋词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞鸟集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白居易诗歌赏析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王维诗歌赏析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时漫画唐诗1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.3哲学人生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国哲学简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏格拉底之死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉思录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲学家们都干了些什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅雷家书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走在人生边上：自问自答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤独是一个人的清欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人生哲思录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡是最浓的人生滋味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理想国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.4小说文学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文学回忆录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个世界会好么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老人与海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱与牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰.克利斯朵夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一生的远行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年维特之烦恼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱你就像爱生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文学类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间的礼物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空的另一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季羡林谈东西方文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍乱时期的爱情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白夜行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文化苦旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们仨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安娜卡列宁娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我与地坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岛上书店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广岛之恋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挪威的森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮与六便士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百年孤独</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无所谓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世纪三部曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基督山伯爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝花夕拾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔登湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罪与罚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万古江河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢铁是怎样炼成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了不起的盖茨比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国当代文学作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国现代文学三十年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>局外人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪炮病菌与钢铁：人类社会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治秩序的起源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用地图看懂世界格局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭、私有制和国家的起源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以历史角度来读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我脑袋里的怪东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D成长生活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给青年的十二封信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何看懂一幅画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西方绘画大师经典系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间管理：充分利用24小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bilibili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济学发展史（亚当-曼昆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国政治史</t>
+  </si>
+  <si>
+    <t>旅行文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -1273,30 +1276,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="3" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1326,22 +1329,22 @@
     </row>
     <row r="5" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,12 +1357,12 @@
     </row>
     <row r="10" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1367,12 +1370,12 @@
     </row>
     <row r="12" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="14" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1388,32 +1391,32 @@
     </row>
     <row r="15" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="21" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1429,12 +1432,12 @@
     </row>
     <row r="22" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1442,12 +1445,12 @@
     </row>
     <row r="24" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="26" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1469,10 +1472,10 @@
     </row>
     <row r="27" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1480,12 +1483,12 @@
     </row>
     <row r="28" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="30" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="31" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="32" spans="2:8" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="33" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1525,15 +1528,15 @@
     </row>
     <row r="34" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="36" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="37" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1557,13 +1560,13 @@
     </row>
     <row r="38" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="40" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="41" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="42" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="43" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="44" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1611,17 +1614,17 @@
     </row>
     <row r="45" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1"/>
       <c r="F47">
@@ -1630,22 +1633,22 @@
     </row>
     <row r="48" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="52" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1661,15 +1664,15 @@
     </row>
     <row r="53" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="55" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1685,10 +1688,10 @@
     </row>
     <row r="56" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
         <v>135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1696,7 +1699,7 @@
     </row>
     <row r="57" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1704,37 +1707,37 @@
     </row>
     <row r="58" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="70" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,7 +1789,7 @@
     </row>
     <row r="73" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,7 +1807,7 @@
     </row>
     <row r="76" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1812,22 +1815,22 @@
     </row>
     <row r="77" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,22 +1848,22 @@
     </row>
     <row r="83" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,22 +1878,22 @@
     </row>
     <row r="89" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="94" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -1911,47 +1914,47 @@
     </row>
     <row r="95" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1964,7 +1967,7 @@
     </row>
     <row r="106" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -1972,20 +1975,20 @@
     </row>
     <row r="107" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -1993,12 +1996,12 @@
     </row>
     <row r="110" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2011,12 +2014,12 @@
     </row>
     <row r="113" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2024,32 +2027,32 @@
     </row>
     <row r="115" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="121" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="122" spans="3:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2110,22 +2113,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,33 +2136,33 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2167,60 +2170,60 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2228,36 +2231,36 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2270,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2298,64 +2301,76 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2363,7 +2378,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2371,7 +2386,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2379,7 +2394,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2387,12 +2402,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2400,7 +2415,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2408,7 +2423,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2416,7 +2431,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2424,18 +2439,18 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -2443,131 +2458,146 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>25</v>
       </c>
@@ -2578,6 +2608,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2611,19 +2642,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/我的图书馆lists.xlsx
+++ b/我的图书馆lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="B文史哲" sheetId="2" r:id="rId1"/>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1636,17 +1636,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>81</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>139</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>79</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>126</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>130</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>134</v>
       </c>
@@ -1696,8 +1696,11 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>136</v>
       </c>
@@ -1705,32 +1708,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -2273,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/我的图书馆lists.xlsx
+++ b/我的图书馆lists.xlsx
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
